--- a/JupyterNotebooks/AveragedIntensites/SA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1208,6 +1208,56 @@
         <v>0.9883475939774307</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.001045738816186</v>
+      </c>
+      <c r="D16">
+        <v>0.9763106660148633</v>
+      </c>
+      <c r="E16">
+        <v>0.9905882352941177</v>
+      </c>
+      <c r="F16">
+        <v>0.9888527775402498</v>
+      </c>
+      <c r="G16">
+        <v>1.001045738816186</v>
+      </c>
+      <c r="H16">
+        <v>0.9763106660148633</v>
+      </c>
+      <c r="I16">
+        <v>0.99</v>
+      </c>
+      <c r="J16">
+        <v>0.981764705882353</v>
+      </c>
+      <c r="K16">
+        <v>0.9925490388345444</v>
+      </c>
+      <c r="L16">
+        <v>0.9819315554119415</v>
+      </c>
+      <c r="M16">
+        <v>1.001045738816186</v>
+      </c>
+      <c r="N16">
+        <v>0.9834494506544904</v>
+      </c>
+      <c r="O16">
+        <v>0.9891993544163542</v>
+      </c>
+      <c r="P16">
+        <v>0.9878803397242819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.001045738816186</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>1.001045738816186</v>
       </c>
       <c r="D10">
-        <v>0.9622840000000006</v>
+        <v>0.9763106660148633</v>
       </c>
       <c r="E10">
-        <v>1.001256000000001</v>
+        <v>0.9905882352941177</v>
       </c>
       <c r="F10">
-        <v>0.9785320000000013</v>
+        <v>0.9888527775402498</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>1.001045738816186</v>
       </c>
       <c r="H10">
-        <v>0.9622840000000006</v>
+        <v>0.9763106660148633</v>
       </c>
       <c r="I10">
-        <v>0.9987600000000005</v>
+        <v>0.99</v>
       </c>
       <c r="J10">
-        <v>0.9770800000000008</v>
+        <v>0.981764705882353</v>
       </c>
       <c r="K10">
-        <v>0.9981240000000015</v>
+        <v>0.9925490388345444</v>
       </c>
       <c r="L10">
-        <v>0.9695760000000004</v>
+        <v>0.9819315554119415</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>1.001045738816186</v>
       </c>
       <c r="N10">
-        <v>0.981770000000001</v>
+        <v>0.9834494506544904</v>
       </c>
       <c r="O10">
-        <v>0.9855180000000008</v>
+        <v>0.9891993544163542</v>
       </c>
       <c r="P10">
-        <v>0.9857015000000008</v>
+        <v>0.9878803397242819</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.001267848907582</v>
       </c>
       <c r="D11">
-        <v>0.9438874999999985</v>
+        <v>0.9654873432150899</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>0.9925839141481579</v>
       </c>
       <c r="F11">
-        <v>0.97</v>
+        <v>0.9848410030365421</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>1.001267848907582</v>
       </c>
       <c r="H11">
-        <v>0.9438874999999985</v>
+        <v>0.9654873432150899</v>
       </c>
       <c r="I11">
-        <v>1.01</v>
+        <v>0.9931767631831939</v>
       </c>
       <c r="J11">
-        <v>0.97</v>
+        <v>0.9839901330880197</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9965198442985799</v>
       </c>
       <c r="L11">
-        <v>0.96</v>
+        <v>0.9735804460606551</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>1.001267848907582</v>
       </c>
       <c r="N11">
-        <v>0.9769437499999993</v>
+        <v>0.979035628681624</v>
       </c>
       <c r="O11">
-        <v>0.9809718749999996</v>
+        <v>0.9860450273268431</v>
       </c>
       <c r="P11">
-        <v>0.9829859374999999</v>
+        <v>0.9864309119922277</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.995259822899203</v>
+        <v>1.001223648239131</v>
       </c>
       <c r="D12">
-        <v>0.9623750508544001</v>
+        <v>0.9655811943862864</v>
       </c>
       <c r="E12">
-        <v>1.000730705510398</v>
+        <v>0.9925405557528618</v>
       </c>
       <c r="F12">
-        <v>0.9781092528128005</v>
+        <v>0.9848594304005645</v>
       </c>
       <c r="G12">
-        <v>0.995259822899203</v>
+        <v>1.001223648239131</v>
       </c>
       <c r="H12">
-        <v>0.9623750508544001</v>
+        <v>0.9655811943862864</v>
       </c>
       <c r="I12">
-        <v>1.000701407231998</v>
+        <v>0.9931308652924401</v>
       </c>
       <c r="J12">
-        <v>0.9781973538816008</v>
+        <v>0.9840247282631469</v>
       </c>
       <c r="K12">
-        <v>0.9945386862592011</v>
+        <v>0.9965100009819182</v>
       </c>
       <c r="L12">
-        <v>0.9716225710080002</v>
+        <v>0.9736416568864202</v>
       </c>
       <c r="M12">
-        <v>0.995259822899203</v>
+        <v>1.001223648239131</v>
       </c>
       <c r="N12">
-        <v>0.981552878182399</v>
+        <v>0.9790608750695742</v>
       </c>
       <c r="O12">
-        <v>0.9841187080192003</v>
+        <v>0.986051207194711</v>
       </c>
       <c r="P12">
-        <v>0.9851918563072002</v>
+        <v>0.9864390100253462</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.987916960427406</v>
+        <v>1.001264175234741</v>
       </c>
       <c r="D13">
-        <v>0.9882814289403906</v>
+        <v>0.9654797020836825</v>
       </c>
       <c r="E13">
-        <v>0.9877268623732334</v>
+        <v>0.9925779251043916</v>
       </c>
       <c r="F13">
-        <v>0.9880020122975326</v>
+        <v>0.984850326492912</v>
       </c>
       <c r="G13">
-        <v>0.987916960427406</v>
+        <v>1.001264175234741</v>
       </c>
       <c r="H13">
-        <v>0.9882814289403906</v>
+        <v>0.9654797020836825</v>
       </c>
       <c r="I13">
-        <v>0.9879949185940951</v>
+        <v>0.993167078723062</v>
       </c>
       <c r="J13">
-        <v>0.9883449923671825</v>
+        <v>0.9840209221568416</v>
       </c>
       <c r="K13">
-        <v>0.9876332335055968</v>
+        <v>0.9965178978921707</v>
       </c>
       <c r="L13">
-        <v>0.987594492097427</v>
+        <v>0.9735910168001257</v>
       </c>
       <c r="M13">
-        <v>0.987916960427406</v>
+        <v>1.001264175234741</v>
       </c>
       <c r="N13">
-        <v>0.988004145656812</v>
+        <v>0.979028813594037</v>
       </c>
       <c r="O13">
-        <v>0.9879818160096406</v>
+        <v>0.9860430322289319</v>
       </c>
       <c r="P13">
-        <v>0.987936862575358</v>
+        <v>0.9864336305609909</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9874915922491165</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.9896617477086177</v>
+        <v>0.9622840000000006</v>
       </c>
       <c r="E14">
-        <v>0.9875652911014803</v>
+        <v>1.001256000000001</v>
       </c>
       <c r="F14">
-        <v>0.9877906375276257</v>
+        <v>0.9785320000000013</v>
       </c>
       <c r="G14">
-        <v>0.9874915922491165</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0.9896617477086177</v>
+        <v>0.9622840000000006</v>
       </c>
       <c r="I14">
-        <v>0.9881038456802084</v>
+        <v>0.9987600000000005</v>
       </c>
       <c r="J14">
-        <v>0.9880218876675262</v>
+        <v>0.9770800000000008</v>
       </c>
       <c r="K14">
-        <v>0.9864377240242617</v>
+        <v>0.9981240000000015</v>
       </c>
       <c r="L14">
-        <v>0.9889037895740711</v>
+        <v>0.9695760000000004</v>
       </c>
       <c r="M14">
-        <v>0.9874915922491165</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.9886135194050489</v>
+        <v>0.981770000000001</v>
       </c>
       <c r="O14">
-        <v>0.9881273171467101</v>
+        <v>0.9855180000000008</v>
       </c>
       <c r="P14">
-        <v>0.9879970644416134</v>
+        <v>0.9857015000000008</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9850077410494816</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.9938160177949179</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="E15">
-        <v>0.9863556726472777</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9889384290707812</v>
+        <v>0.97</v>
       </c>
       <c r="G15">
-        <v>0.9850077410494816</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.9938160177949179</v>
+        <v>0.9438874999999985</v>
       </c>
       <c r="I15">
-        <v>0.9860485660581</v>
+        <v>1.01</v>
       </c>
       <c r="J15">
-        <v>0.9890761757156208</v>
+        <v>0.97</v>
       </c>
       <c r="K15">
-        <v>0.9864491816569338</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9910889678263319</v>
+        <v>0.96</v>
       </c>
       <c r="M15">
-        <v>0.9850077410494816</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.9900858452210979</v>
+        <v>0.9769437499999993</v>
       </c>
       <c r="O15">
-        <v>0.9885294651406146</v>
+        <v>0.9809718749999996</v>
       </c>
       <c r="P15">
-        <v>0.9883475939774307</v>
+        <v>0.9829859374999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.001045738816186</v>
+        <v>0.995259822899203</v>
       </c>
       <c r="D16">
-        <v>0.9763106660148633</v>
+        <v>0.9623750508544001</v>
       </c>
       <c r="E16">
-        <v>0.9905882352941177</v>
+        <v>1.000730705510398</v>
       </c>
       <c r="F16">
-        <v>0.9888527775402498</v>
+        <v>0.9781092528128005</v>
       </c>
       <c r="G16">
-        <v>1.001045738816186</v>
+        <v>0.995259822899203</v>
       </c>
       <c r="H16">
-        <v>0.9763106660148633</v>
+        <v>0.9623750508544001</v>
       </c>
       <c r="I16">
-        <v>0.99</v>
+        <v>1.000701407231998</v>
       </c>
       <c r="J16">
-        <v>0.981764705882353</v>
+        <v>0.9781973538816008</v>
       </c>
       <c r="K16">
-        <v>0.9925490388345444</v>
+        <v>0.9945386862592011</v>
       </c>
       <c r="L16">
-        <v>0.9819315554119415</v>
+        <v>0.9716225710080002</v>
       </c>
       <c r="M16">
-        <v>1.001045738816186</v>
+        <v>0.995259822899203</v>
       </c>
       <c r="N16">
-        <v>0.9834494506544904</v>
+        <v>0.981552878182399</v>
       </c>
       <c r="O16">
-        <v>0.9891993544163542</v>
+        <v>0.9841187080192003</v>
       </c>
       <c r="P16">
-        <v>0.9878803397242819</v>
+        <v>0.9851918563072002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.987916960427406</v>
+      </c>
+      <c r="D17">
+        <v>0.9882814289403906</v>
+      </c>
+      <c r="E17">
+        <v>0.9877268623732334</v>
+      </c>
+      <c r="F17">
+        <v>0.9880020122975326</v>
+      </c>
+      <c r="G17">
+        <v>0.987916960427406</v>
+      </c>
+      <c r="H17">
+        <v>0.9882814289403906</v>
+      </c>
+      <c r="I17">
+        <v>0.9879949185940951</v>
+      </c>
+      <c r="J17">
+        <v>0.9883449923671825</v>
+      </c>
+      <c r="K17">
+        <v>0.9876332335055968</v>
+      </c>
+      <c r="L17">
+        <v>0.987594492097427</v>
+      </c>
+      <c r="M17">
+        <v>0.987916960427406</v>
+      </c>
+      <c r="N17">
+        <v>0.988004145656812</v>
+      </c>
+      <c r="O17">
+        <v>0.9879818160096406</v>
+      </c>
+      <c r="P17">
+        <v>0.987936862575358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9874915922491165</v>
+      </c>
+      <c r="D18">
+        <v>0.9896617477086177</v>
+      </c>
+      <c r="E18">
+        <v>0.9875652911014803</v>
+      </c>
+      <c r="F18">
+        <v>0.9877906375276257</v>
+      </c>
+      <c r="G18">
+        <v>0.9874915922491165</v>
+      </c>
+      <c r="H18">
+        <v>0.9896617477086177</v>
+      </c>
+      <c r="I18">
+        <v>0.9881038456802084</v>
+      </c>
+      <c r="J18">
+        <v>0.9880218876675262</v>
+      </c>
+      <c r="K18">
+        <v>0.9864377240242617</v>
+      </c>
+      <c r="L18">
+        <v>0.9889037895740711</v>
+      </c>
+      <c r="M18">
+        <v>0.9874915922491165</v>
+      </c>
+      <c r="N18">
+        <v>0.9886135194050489</v>
+      </c>
+      <c r="O18">
+        <v>0.9881273171467101</v>
+      </c>
+      <c r="P18">
+        <v>0.9879970644416134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9850077410494816</v>
+      </c>
+      <c r="D19">
+        <v>0.9938160177949179</v>
+      </c>
+      <c r="E19">
+        <v>0.9863556726472777</v>
+      </c>
+      <c r="F19">
+        <v>0.9889384290707812</v>
+      </c>
+      <c r="G19">
+        <v>0.9850077410494816</v>
+      </c>
+      <c r="H19">
+        <v>0.9938160177949179</v>
+      </c>
+      <c r="I19">
+        <v>0.9860485660581</v>
+      </c>
+      <c r="J19">
+        <v>0.9890761757156208</v>
+      </c>
+      <c r="K19">
+        <v>0.9864491816569338</v>
+      </c>
+      <c r="L19">
+        <v>0.9910889678263319</v>
+      </c>
+      <c r="M19">
+        <v>0.9850077410494816</v>
+      </c>
+      <c r="N19">
+        <v>0.9900858452210979</v>
+      </c>
+      <c r="O19">
+        <v>0.9885294651406146</v>
+      </c>
+      <c r="P19">
+        <v>0.9883475939774307</v>
       </c>
     </row>
   </sheetData>
